--- a/data/animals.xlsx
+++ b/data/animals.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B8AD1E2-D196-487C-B60F-476D47E7489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FCF5A1-9F03-4D01-8C49-E6E694948999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cattle" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="56">
   <si>
     <t>Abatement</t>
   </si>
@@ -72,6 +72,9 @@
     <t>Beef</t>
   </si>
   <si>
+    <t>Spared Cattle/Sheep area</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>Crops</t>
+  </si>
+  <si>
+    <t>No-Crops</t>
   </si>
   <si>
     <t>Sheep</t>
@@ -207,7 +213,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +225,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -242,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -253,6 +265,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,19 +612,20 @@
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -652,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>3</v>
@@ -669,8 +683,11 @@
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -682,55 +699,58 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,55 +762,58 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="1">
         <v>5</v>
       </c>
       <c r="M3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1">
         <v>6</v>
       </c>
       <c r="O3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1">
         <v>7</v>
       </c>
       <c r="Q3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R3" s="1">
         <v>8</v>
       </c>
       <c r="S3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -802,37 +825,37 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>10</v>
@@ -841,26 +864,29 @@
         <v>10</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>2.1</v>
@@ -869,60 +895,63 @@
         <v>1.9</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>2.15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1.89</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1.9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1.67</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1.54</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1.7</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>1.5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1.8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>1.36</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>1.26</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>1.4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>1.2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>1.5</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>1.24</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>0.1</v>
@@ -931,43 +960,43 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0.06</v>
       </c>
       <c r="G7" s="1">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H7" s="1">
         <v>0.1</v>
       </c>
       <c r="I7" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="1">
         <v>0.05</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.1</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>0.04</v>
       </c>
       <c r="Q7" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -976,15 +1005,18 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>0.3</v>
@@ -993,60 +1025,63 @@
         <v>0.4</v>
       </c>
       <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.41</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.25</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.34</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>0.3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0.2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.3</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>1.35</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>1.59</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>1.3</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>1.5</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>1.3</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>1.47</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>73.900000000000006</v>
@@ -1055,60 +1090,63 @@
         <v>70.900000000000006</v>
       </c>
       <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>76.63</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>69.86</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>68.8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>59.85</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>57.47</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>62.1</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>56.6</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>64.3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>55.7</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>50.82</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>48</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>52.8</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>47.3</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>54.7</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>46.51</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>6255.4</v>
@@ -1116,61 +1154,64 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>6199.7</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>6656.1</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>6255.4</v>
       </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>6199.7</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
         <v>6656.1</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>5480.6</v>
       </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <v>5468.3</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
         <v>5910.7</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>4170.2</v>
@@ -1179,60 +1220,63 @@
         <v>14353.6</v>
       </c>
       <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>4133.1000000000004</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>13755.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>3584</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>13157.1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>4170.2</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>14353.6</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>4133.1000000000004</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>13755.3</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>3584</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>13157.1</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>3653.8</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>10783.1</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>3645.6</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>10381.5</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>3182.7</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>9980</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>54202500</v>
@@ -1240,61 +1284,64 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>62204760</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>70207020</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>54202500</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>62204760</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>70207020</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>54202500</v>
       </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>62204760</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>70207020</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>2421607</v>
@@ -1303,60 +1350,63 @@
         <v>3008317</v>
       </c>
       <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>2421607</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3008317</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>2421607</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>3008317</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>2421607</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>3008317</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>2421607</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>3008317</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>2421607</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>3008317</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>2421607</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>3008317</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>2421607</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>3008317</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>2421607</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>3008317</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>56624107</v>
@@ -1365,60 +1415,63 @@
         <v>3008317</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>64626367</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3008317</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>72628627</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3008317</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>56624107</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3008317</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>64626367</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3008317</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>72628627</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3008317</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>56624107</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3008317</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>64626367</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3008317</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>72628627</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3008317</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3">
         <v>27439</v>
@@ -1427,60 +1480,63 @@
         <v>28177</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>27439</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28177</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25934</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>26203</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>27439</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28177</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27439</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28177</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25934</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>26203</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>27439</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>28177</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>27439</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>28177</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25934</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>26203</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>1390.1</v>
@@ -1489,60 +1545,63 @@
         <v>4784.5</v>
       </c>
       <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>1377.7</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>4585.1000000000004</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>1194.7</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>4385.7</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>1390.1</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>4784.5</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <v>1377.7</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>4585.1000000000004</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>1194.7</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>4385.7</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>1217.9000000000001</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>3594.4</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>1215.2</v>
       </c>
-      <c r="R16" s="2">
+      <c r="S16" s="2">
         <v>3460.5</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>1060.9000000000001</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>3326.7</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>13895</v>
@@ -1551,60 +1610,63 @@
         <v>6228</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>15721</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6228</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17546</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6228</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13895</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6228</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15721</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6228</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17546</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6228</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13895</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6228</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15721</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6228</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17546</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6228</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>966</v>
@@ -1612,61 +1674,64 @@
       <c r="D18" s="3">
         <v>1328</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>957</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1273</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>951</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1218</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>966</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1328</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>957</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1273</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>951</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1218</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>846</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>998</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>846</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="1">
         <v>961</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>846</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>924</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>111</v>
@@ -1675,60 +1740,63 @@
         <v>153</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>110</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>147</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>110</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>140</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>111</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>153</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>110</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>147</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>110</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>140</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>97</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>115</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>97</v>
       </c>
-      <c r="R19" s="1">
+      <c r="S19" s="1">
         <v>111</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>97</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>362</v>
@@ -1737,60 +1805,63 @@
         <v>498</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>359</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>477</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>356</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>456</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>362</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>498</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>359</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>477</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>356</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>456</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>317</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>374</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>317</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="1">
         <v>360</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>317</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>0.37</v>
@@ -1799,37 +1870,37 @@
         <v>0.41</v>
       </c>
       <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.37</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.41</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>0.37</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>0.41</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.37</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.41</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>0.37</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>0.41</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>0.37</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>0.41</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.38</v>
       </c>
       <c r="P21" s="1">
         <v>0.38</v>
@@ -1846,13 +1917,16 @@
       <c r="T21" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
         <v>0.39</v>
@@ -1861,60 +1935,63 @@
         <v>0.46</v>
       </c>
       <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.39</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.46</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.39</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.46</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.39</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.46</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>0.39</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>0.46</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>0.39</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>0.46</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>0.39</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>0.39</v>
       </c>
-      <c r="R22" s="1">
+      <c r="S22" s="1">
         <v>0.38</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>0.39</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1">
         <v>0.02</v>
@@ -1923,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0.02</v>
@@ -1953,30 +2030,33 @@
         <v>0.02</v>
       </c>
       <c r="O23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="P23" s="1">
         <v>0.03</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>0.03</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="1">
         <v>0.02</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>0.03</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3">
         <v>5918</v>
@@ -1985,51 +2065,54 @@
         <v>2219</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>6300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2242</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6681</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2265</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5918</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2219</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2242</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6681</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2265</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5918</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2219</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2242</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6681</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2265</v>
       </c>
     </row>
@@ -2040,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068914BF-AE90-4BE8-894C-61EC99CA55D7}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2051,14 +2134,16 @@
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -2087,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -2098,8 +2183,11 @@
       <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,26 +2228,29 @@
       <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>37</v>
@@ -2171,7 +2262,7 @@
         <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>37</v>
@@ -2182,18 +2273,21 @@
       <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
@@ -2205,39 +2299,42 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>12.4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>11.8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3.3</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>11.8</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>3.3</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>12.4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0.2</v>
@@ -2249,39 +2346,42 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>1.8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>3.2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>3.2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2293,39 +2393,42 @@
         <v>6.2</v>
       </c>
       <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>24.4</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>19.8</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>87.9</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>476.2</v>
@@ -2336,40 +2439,43 @@
       <c r="E8" s="2">
         <v>1095.9000000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>860.9</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>376.2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>126.9</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>865.8</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>697.3</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>376.2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>126.9</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>865.8</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>554.70000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2380,40 +2486,43 @@
       <c r="E9" s="2">
         <v>334575.90000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="10">
+        <v>413054</v>
+      </c>
+      <c r="G9" s="2">
         <v>828020.3</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>334575.90000000002</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>828020.3</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
         <v>334575.90000000002</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>595647.1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>55453.7</v>
@@ -2425,39 +2534,42 @@
         <v>271320.8</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>6891.5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>55453.7</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>30628</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>297096.3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>6891.5</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>55453.7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>30628</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>322871.7</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>6891.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>55453.7</v>
@@ -2469,39 +2581,42 @@
         <v>176358.5</v>
       </c>
       <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>6891.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>55453.7</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>30628</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>193112.6</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>6891.5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>55453.7</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>30628</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>209866.6</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>6891.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -2512,40 +2627,43 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>276006.8</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
         <v>276006.8</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>198549</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>1322672.5</v>
@@ -2556,40 +2674,43 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>299336.40000000002</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>1322672.5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>513073.8</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
         <v>299336.40000000002</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>1322672.5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>513073.8</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>299336.40000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -2601,39 +2722,42 @@
         <v>42368.9</v>
       </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>76626</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>42368.9</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>76626</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
         <v>42368.9</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>55121.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -2645,39 +2769,42 @@
         <v>11050.2</v>
       </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>8824.7000000000007</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>11050.2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>8824.7000000000007</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
         <v>11050.2</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>6348.2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -2689,39 +2816,42 @@
         <v>35765.5</v>
       </c>
       <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>28722.799999999999</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>35765.5</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>28722.799999999999</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
         <v>35765.5</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>20662.099999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>1.1000000000000001</v>
@@ -2733,39 +2863,42 @@
         <v>2.8</v>
       </c>
       <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <v>5.6</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.8</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>2.8</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>5.6</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>0.8</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>2.8</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>1.3</v>
@@ -2777,39 +2910,42 @@
         <v>12.8</v>
       </c>
       <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
         <v>24.6</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1.3</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>12.8</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>24.6</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1.3</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>12.8</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>18.3</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>0.1</v>
@@ -2821,39 +2957,42 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
         <v>2.6</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.1</v>
       </c>
       <c r="H19" s="1">
         <v>0.1</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>2.6</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.1</v>
       </c>
       <c r="L19" s="1">
         <v>0.1</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
         <v>205096.1</v>
@@ -2867,28 +3006,31 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>205096.1</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>233019</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>205096.1</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>233019</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
       <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2909,7 +3051,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2918,16 +3060,16 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3075,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AE4ACF-1B07-432B-B403-AB02D8214878}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3089,68 +3231,68 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5">
         <v>7.1881986300011903E-5</v>
@@ -3182,10 +3324,10 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3217,10 +3359,10 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5">
         <v>1.1401233025364475E-3</v>
@@ -3252,10 +3394,10 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5">
         <v>3.1528189189367808E-3</v>
@@ -3287,10 +3429,10 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3322,10 +3464,10 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8">
         <v>141000</v>
@@ -3393,14 +3535,26 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
